--- a/Naukri_REFramework/Result/NaukriSearch.xlsx
+++ b/Naukri_REFramework/Result/NaukriSearch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sundarsi\source\RPA\UiPath\github\Naukri_REFramework\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BB953E-1928-4F3A-B068-1FA8A46FB591}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1225B35E-7044-4397-B52C-88C3082EF27B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{82030CAF-2DF0-485D-945C-EB60E8957052}"/>
   </bookViews>
@@ -545,7 +545,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>16</v>

--- a/Naukri_REFramework/Result/NaukriSearch.xlsx
+++ b/Naukri_REFramework/Result/NaukriSearch.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sundarsi\source\RPA\UiPath\github\Naukri_REFramework\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1225B35E-7044-4397-B52C-88C3082EF27B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42517C1B-10CE-461B-8365-5C8FB39BD491}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{82030CAF-2DF0-485D-945C-EB60E8957052}"/>
   </bookViews>
   <sheets>
     <sheet name="NaukriSearch" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>Position</t>
   </si>
@@ -54,41 +55,95 @@
     <t>Bangalore</t>
   </si>
   <si>
+    <t>ActiveIn</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>AnyKeywords</t>
+  </si>
+  <si>
+    <t>AllKeywords</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>caiindia.rpa@outlook.com</t>
+  </si>
+  <si>
+    <t>4-8</t>
+  </si>
+  <si>
+    <t>FullStack .Net Developer</t>
+  </si>
+  <si>
+    <t>Asp.net Developer,.Net Developer,Full stack.Net Developer,Dotnet Developer</t>
+  </si>
+  <si>
+    <t>7 Days</t>
+  </si>
+  <si>
     <t>15 Days</t>
   </si>
   <si>
-    <t>4-8</t>
-  </si>
-  <si>
-    <t>ActiveIn</t>
-  </si>
-  <si>
-    <t>#</t>
+    <t>Asp.net, C#, MVC,SQL,Angular</t>
+  </si>
+  <si>
+    <t>Andriod Developer</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>sai.prasad@cai.io</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 Days, Serving notice </t>
+  </si>
+  <si>
+    <t>Android SDK,Java Script</t>
+  </si>
+  <si>
+    <t>AWS SysOp Administrator</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>AWS Administrator</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
+    <t>Android SDK,Java Script, Sqlite</t>
   </si>
   <si>
     <t>DotNet Developer</t>
   </si>
   <si>
-    <t>AnyKeywords</t>
-  </si>
-  <si>
-    <t>AllKeywords</t>
-  </si>
-  <si>
-    <t>Asp.net Developer,.net Developer</t>
-  </si>
-  <si>
-    <t>Asp.net,C#,Angular</t>
-  </si>
-  <si>
-    <t>6-10</t>
+    <t>1 Month</t>
+  </si>
+  <si>
+    <t>Syed Risalath Pasha, Nita Gope Das,Gopalakrishna N,Suresh,Lucky Agarwal,Shefali Lachhar,pushpavathi p,Pratikshya Rath,shaili.s.rane,giridhar singh,STANLY JONES</t>
+  </si>
+  <si>
+    <t>Asp.net, C#, Angular,SQL,Angular,MVC,Java</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +155,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,13 +200,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -153,8 +216,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -467,17 +537,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C3BCBF-9B9B-42AD-A041-18B9B1812B92}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.54296875" bestFit="1" customWidth="1"/>
@@ -485,98 +555,256 @@
     <col min="8" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="H2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="8">
+        <v>20</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B3B051-37AE-4110-A388-F82BB7F50059}">
+  <dimension ref="B1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="6">
+        <v>15</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="6">
+        <v>20</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="6">
+        <v>15</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="6">
+        <v>2</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="8">
+        <v>20</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K1" r:id="rId1" xr:uid="{9A1CFE6B-FB75-4814-BDB5-C10D52129008}"/>
+    <hyperlink ref="K2" r:id="rId2" xr:uid="{1DAC2073-5ADB-40EA-9567-25BA52C2FC1D}"/>
+    <hyperlink ref="K3" r:id="rId3" xr:uid="{2DD12BAC-8A79-4595-8DC0-D9878E3B60E8}"/>
+    <hyperlink ref="K4" r:id="rId4" xr:uid="{CDE833FC-E382-4399-A415-49CF716D8F4B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Naukri_REFramework/Result/NaukriSearch.xlsx
+++ b/Naukri_REFramework/Result/NaukriSearch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sundarsi\source\RPA\UiPath\github\Naukri_REFramework\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42517C1B-10CE-461B-8365-5C8FB39BD491}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA56D8F-D437-47D7-A909-7B0184010167}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{82030CAF-2DF0-485D-945C-EB60E8957052}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>Position</t>
   </si>
@@ -136,7 +136,10 @@
     <t>Syed Risalath Pasha, Nita Gope Das,Gopalakrishna N,Suresh,Lucky Agarwal,Shefali Lachhar,pushpavathi p,Pratikshya Rath,shaili.s.rane,giridhar singh,STANLY JONES</t>
   </si>
   <si>
-    <t>Asp.net, C#, Angular,SQL,Angular,MVC,Java</t>
+    <t>15 days</t>
+  </si>
+  <si>
+    <t>Asp.net, C#, Angular,SQL,MVC,Java</t>
   </si>
 </sst>
 </file>
@@ -540,7 +543,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -594,7 +597,9 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
       <c r="B2" s="8" t="s">
         <v>31</v>
       </c>
@@ -602,7 +607,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>13</v>
@@ -614,10 +619,10 @@
         <v>6</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I2" s="8">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>13</v>

--- a/Naukri_REFramework/Result/NaukriSearch.xlsx
+++ b/Naukri_REFramework/Result/NaukriSearch.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sundarsi\source\RPA\UiPath\github\Naukri_REFramework\Result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sundarsi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA56D8F-D437-47D7-A909-7B0184010167}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4842FA-1BB6-4583-84B8-E1F11ADA453E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{82030CAF-2DF0-485D-945C-EB60E8957052}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>Position</t>
   </si>
@@ -139,7 +139,10 @@
     <t>15 days</t>
   </si>
   <si>
-    <t>Asp.net, C#, Angular,SQL,MVC,Java</t>
+    <t>Asp.net Developer,Full stack.Net Developer,Dotnet Developer</t>
+  </si>
+  <si>
+    <t>Asp.net, C#, Angular,SQL,MVC</t>
   </si>
 </sst>
 </file>
@@ -543,7 +546,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -604,10 +607,10 @@
         <v>31</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>13</v>

--- a/Naukri_REFramework/Result/NaukriSearch.xlsx
+++ b/Naukri_REFramework/Result/NaukriSearch.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sundarsi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sundarsi\source\RPA\UiPath\github\Naukri_REFramework\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4842FA-1BB6-4583-84B8-E1F11ADA453E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E055915-1816-4394-8EE3-BB198AEF1B5D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{82030CAF-2DF0-485D-945C-EB60E8957052}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>Position</t>
   </si>
@@ -139,10 +139,34 @@
     <t>15 days</t>
   </si>
   <si>
-    <t>Asp.net Developer,Full stack.Net Developer,Dotnet Developer</t>
-  </si>
-  <si>
-    <t>Asp.net, C#, Angular,SQL,MVC</t>
+    <t>Manual Tester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immediate </t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>Manual Testing, Black Box, Verification and Validation Testing, System Testing, Functional, Regression, Integration, User Interface, User Acceptance Testing, End-to-End Testing</t>
+  </si>
+  <si>
+    <t>SQL writing, Testing</t>
+  </si>
+  <si>
+    <t>Ramkumar.Ramanna@cai.io</t>
+  </si>
+  <si>
+    <t>ETL Tester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL writing,testing </t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>Informatica, Functional testing, System testing, Application testing, Performance testing, Load testing, Integration testing, Regression testing, Black Box testing, Stress Testing</t>
   </si>
 </sst>
 </file>
@@ -212,7 +236,6 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -228,6 +251,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -546,14 +572,14 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.6328125" customWidth="1"/>
     <col min="4" max="4" width="16.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.54296875" bestFit="1" customWidth="1"/>
@@ -564,247 +590,287 @@
     <col min="11" max="11" width="21.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="B2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="8">
-        <v>2</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="5"/>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{17A0906A-45F1-45D7-BB7B-F4E3688964B1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B3B051-37AE-4110-A388-F82BB7F50059}">
-  <dimension ref="B1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="5">
         <v>15</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>20</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>15</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>2</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>20</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="5"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="9">
+        <v>15</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -812,6 +878,7 @@
     <hyperlink ref="K2" r:id="rId2" xr:uid="{1DAC2073-5ADB-40EA-9567-25BA52C2FC1D}"/>
     <hyperlink ref="K3" r:id="rId3" xr:uid="{2DD12BAC-8A79-4595-8DC0-D9878E3B60E8}"/>
     <hyperlink ref="K4" r:id="rId4" xr:uid="{CDE833FC-E382-4399-A415-49CF716D8F4B}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{FDB442C9-1942-4B64-B124-A44BC5E240A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Naukri_REFramework/Result/NaukriSearch.xlsx
+++ b/Naukri_REFramework/Result/NaukriSearch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sundarsi\source\RPA\UiPath\github\Naukri_REFramework\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E055915-1816-4394-8EE3-BB198AEF1B5D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7870137B-7B85-4C64-87D6-355A6C50D4F5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{82030CAF-2DF0-485D-945C-EB60E8957052}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
   <si>
     <t>Position</t>
   </si>
@@ -160,13 +160,55 @@
     <t>ETL Tester</t>
   </si>
   <si>
-    <t xml:space="preserve">SQL writing,testing </t>
-  </si>
-  <si>
     <t>6-8</t>
   </si>
   <si>
-    <t>Informatica, Functional testing, System testing, Application testing, Performance testing, Load testing, Integration testing, Regression testing, Black Box testing, Stress Testing</t>
+    <t>ETL Testing, Database Testing</t>
+  </si>
+  <si>
+    <t>Informatica, Functional testing, System testing, Application testing, Integration testing, Regression testing, Black Box testing</t>
+  </si>
+  <si>
+    <t>ServiceNow Developer</t>
+  </si>
+  <si>
+    <t>ServiceNow, ITSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ServiceNow, ITSM, Incident Management, Problem Management, Configuration Management, Change Management, Knowledge Management </t>
+  </si>
+  <si>
+    <t>4-7</t>
+  </si>
+  <si>
+    <t>8-12</t>
+  </si>
+  <si>
+    <t>swapnil.tamhane@cai.io</t>
+  </si>
+  <si>
+    <t>TecH lead</t>
+  </si>
+  <si>
+    <t>ramkumar.ramanna@cai.io</t>
+  </si>
+  <si>
+    <t>18-22</t>
+  </si>
+  <si>
+    <t>Asp.Net MVC,Angular,SQL Server,Asp.net core</t>
+  </si>
+  <si>
+    <t>Asp.Net MVC,Angular</t>
+  </si>
+  <si>
+    <t>10-11</t>
+  </si>
+  <si>
+    <t>3-8</t>
+  </si>
+  <si>
+    <t>6-14</t>
   </si>
 </sst>
 </file>
@@ -234,7 +276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -254,6 +296,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -572,22 +620,22 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.6328125" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.08984375" customWidth="1"/>
     <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -625,21 +673,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>37</v>
+      <c r="B2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="F2">
         <v>15</v>
@@ -651,18 +699,18 @@
         <v>32</v>
       </c>
       <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="4" t="s">
         <v>40</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{17A0906A-45F1-45D7-BB7B-F4E3688964B1}"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{8D4AB60C-BB9F-4324-A1A8-376AE6DC3DEF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -671,10 +719,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B3B051-37AE-4110-A388-F82BB7F50059}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -870,6 +918,111 @@
       </c>
       <c r="K6" s="4" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -879,6 +1032,9 @@
     <hyperlink ref="K3" r:id="rId3" xr:uid="{2DD12BAC-8A79-4595-8DC0-D9878E3B60E8}"/>
     <hyperlink ref="K4" r:id="rId4" xr:uid="{CDE833FC-E382-4399-A415-49CF716D8F4B}"/>
     <hyperlink ref="K6" r:id="rId5" xr:uid="{FDB442C9-1942-4B64-B124-A44BC5E240A4}"/>
+    <hyperlink ref="K7" r:id="rId6" xr:uid="{17A0906A-45F1-45D7-BB7B-F4E3688964B1}"/>
+    <hyperlink ref="K8" r:id="rId7" xr:uid="{EB9DC104-FECC-4E9C-AB8B-6E90EEE93730}"/>
+    <hyperlink ref="K9" r:id="rId8" xr:uid="{16FF7FFA-2220-4535-A3ED-140261FBC8FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Naukri_REFramework/Result/NaukriSearch.xlsx
+++ b/Naukri_REFramework/Result/NaukriSearch.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sundarsi\source\RPA\UiPath\github\Naukri_REFramework\Result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sundarsi\me\source\RPA\UiPath\github\Naukri_REFramework\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7870137B-7B85-4C64-87D6-355A6C50D4F5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5084675-95E2-4553-AE83-87D618E54062}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{82030CAF-2DF0-485D-945C-EB60E8957052}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="69">
   <si>
     <t>Position</t>
   </si>
@@ -209,6 +209,36 @@
   </si>
   <si>
     <t>6-14</t>
+  </si>
+  <si>
+    <t>.NET, MVC, C#,javascript</t>
+  </si>
+  <si>
+    <t>Sitecore, Sitecore Certified</t>
+  </si>
+  <si>
+    <t>Sitecore</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>6-12</t>
+  </si>
+  <si>
+    <t>ServiceNow PM</t>
+  </si>
+  <si>
+    <t>ServiceNow, ITSM, Service Portals</t>
+  </si>
+  <si>
+    <t>ServiceNow, ITSM, Project Management, Business Analyst, Incident Management, Problem Management, Configuration Management, Change Management, Knowledge Management</t>
+  </si>
+  <si>
+    <t>Immediate</t>
+  </si>
+  <si>
+    <t>7-22</t>
   </si>
 </sst>
 </file>
@@ -627,7 +657,7 @@
   <cols>
     <col min="1" max="1" width="1.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
     <col min="4" max="4" width="58.08984375" customWidth="1"/>
     <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.54296875" bestFit="1" customWidth="1"/>
@@ -673,36 +703,36 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:11" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
+        <v>64</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2">
+        <v>63</v>
+      </c>
+      <c r="F2" s="11">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2">
-        <v>40</v>
+      <c r="H2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="11">
+        <v>25</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="K2" s="14" t="s">
         <v>50</v>
@@ -710,7 +740,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{8D4AB60C-BB9F-4324-A1A8-376AE6DC3DEF}"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{52BE5BF4-EE32-4998-94CC-2A901F584080}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -719,10 +749,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B3B051-37AE-4110-A388-F82BB7F50059}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1023,6 +1053,73 @@
       </c>
       <c r="K9" s="14" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10">
+        <v>40</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="11">
+        <v>50</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1035,6 +1132,7 @@
     <hyperlink ref="K7" r:id="rId6" xr:uid="{17A0906A-45F1-45D7-BB7B-F4E3688964B1}"/>
     <hyperlink ref="K8" r:id="rId7" xr:uid="{EB9DC104-FECC-4E9C-AB8B-6E90EEE93730}"/>
     <hyperlink ref="K9" r:id="rId8" xr:uid="{16FF7FFA-2220-4535-A3ED-140261FBC8FB}"/>
+    <hyperlink ref="K10" r:id="rId9" xr:uid="{8D4AB60C-BB9F-4324-A1A8-376AE6DC3DEF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Naukri_REFramework/Result/NaukriSearch.xlsx
+++ b/Naukri_REFramework/Result/NaukriSearch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sundarsi\me\source\RPA\UiPath\github\Naukri_REFramework\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5084675-95E2-4553-AE83-87D618E54062}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52726611-33C2-4122-B241-2E46BCBFF67B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{82030CAF-2DF0-485D-945C-EB60E8957052}"/>
   </bookViews>
@@ -223,22 +223,22 @@
     <t>12-15</t>
   </si>
   <si>
+    <t>Cloud Engineer</t>
+  </si>
+  <si>
+    <t>14-18</t>
+  </si>
+  <si>
+    <t>harshkumar.giroti@cai.io</t>
+  </si>
+  <si>
+    <t>Data Analytics, AWS, EC2, S3, Lambda, Auto Scaling, CI/CD, ETL, Cloudera, Hadoop, Python, Data Lakes, DevOps, Kubernetes</t>
+  </si>
+  <si>
     <t>6-12</t>
   </si>
   <si>
-    <t>ServiceNow PM</t>
-  </si>
-  <si>
-    <t>ServiceNow, ITSM, Service Portals</t>
-  </si>
-  <si>
-    <t>ServiceNow, ITSM, Project Management, Business Analyst, Incident Management, Problem Management, Configuration Management, Change Management, Knowledge Management</t>
-  </si>
-  <si>
-    <t>Immediate</t>
-  </si>
-  <si>
-    <t>7-22</t>
+    <t>AWS , Python, DevOps, Data Analytics</t>
   </si>
 </sst>
 </file>
@@ -650,7 +650,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -708,16 +708,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F2" s="11">
         <v>15</v>
@@ -726,21 +726,21 @@
         <v>6</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="I2" s="11">
         <v>25</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{52BE5BF4-EE32-4998-94CC-2A901F584080}"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{A3BFA6E3-5AF5-423D-8351-896BEE7FE581}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Naukri_REFramework/Result/NaukriSearch.xlsx
+++ b/Naukri_REFramework/Result/NaukriSearch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sundarsi\me\source\RPA\UiPath\github\Naukri_REFramework\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52726611-33C2-4122-B241-2E46BCBFF67B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B03B0C-2133-48DD-8C1F-EDDA97174A0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{82030CAF-2DF0-485D-945C-EB60E8957052}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82030CAF-2DF0-485D-945C-EB60E8957052}"/>
   </bookViews>
   <sheets>
     <sheet name="NaukriSearch" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
   <si>
     <t>Position</t>
   </si>
@@ -223,22 +223,25 @@
     <t>12-15</t>
   </si>
   <si>
-    <t>Cloud Engineer</t>
-  </si>
-  <si>
-    <t>14-18</t>
-  </si>
-  <si>
-    <t>harshkumar.giroti@cai.io</t>
-  </si>
-  <si>
-    <t>Data Analytics, AWS, EC2, S3, Lambda, Auto Scaling, CI/CD, ETL, Cloudera, Hadoop, Python, Data Lakes, DevOps, Kubernetes</t>
-  </si>
-  <si>
-    <t>6-12</t>
-  </si>
-  <si>
-    <t>AWS , Python, DevOps, Data Analytics</t>
+    <t>sivaprakasam.sundaram@cai.io</t>
+  </si>
+  <si>
+    <t>Workday Support Analyst</t>
+  </si>
+  <si>
+    <t>4-10</t>
+  </si>
+  <si>
+    <t>15-20</t>
+  </si>
+  <si>
+    <t>Sitecore Developer</t>
+  </si>
+  <si>
+    <t>6-10</t>
+  </si>
+  <si>
+    <t>7-24</t>
   </si>
 </sst>
 </file>
@@ -650,25 +653,25 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" customWidth="1"/>
-    <col min="4" max="4" width="58.08984375" customWidth="1"/>
-    <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="58.109375" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -703,21 +706,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>67</v>
       </c>
       <c r="F2" s="11">
         <v>15</v>
@@ -726,16 +729,16 @@
         <v>6</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I2" s="11">
         <v>25</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -749,15 +752,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B3B051-37AE-4110-A388-F82BB7F50059}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
         <v>14</v>
       </c>
@@ -789,7 +792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
@@ -821,7 +824,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
@@ -853,7 +856,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
@@ -885,7 +888,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>31</v>
       </c>
@@ -915,7 +918,7 @@
       </c>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -950,7 +953,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -985,7 +988,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1020,7 +1023,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1055,7 +1058,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1090,7 +1093,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>1</v>
       </c>
@@ -1120,6 +1123,41 @@
       </c>
       <c r="J11" s="12" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>1</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="11">
+        <v>15</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="11">
+        <v>25</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1133,6 +1171,7 @@
     <hyperlink ref="K8" r:id="rId7" xr:uid="{EB9DC104-FECC-4E9C-AB8B-6E90EEE93730}"/>
     <hyperlink ref="K9" r:id="rId8" xr:uid="{16FF7FFA-2220-4535-A3ED-140261FBC8FB}"/>
     <hyperlink ref="K10" r:id="rId9" xr:uid="{8D4AB60C-BB9F-4324-A1A8-376AE6DC3DEF}"/>
+    <hyperlink ref="K12" r:id="rId10" xr:uid="{03157352-A50F-4BB0-A48B-852E18D8A033}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
